--- a/SPB.Test/templates/test.xlsx
+++ b/SPB.Test/templates/test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\me\dev-jaguar\SPB\SPB.Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\me\dev-jaguar\SPB\SPB.Test\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59942F66-9442-40CC-B9B3-51003A5DA411}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97AC593A-AD9D-415F-B861-E94C5BA8B321}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="-120" windowWidth="27945" windowHeight="18240" xr2:uid="{7C39D44B-DF44-491B-B58F-C662F65CDCB7}"/>
+    <workbookView xWindow="31080" yWindow="105" windowWidth="23715" windowHeight="17790" xr2:uid="{7C39D44B-DF44-491B-B58F-C662F65CDCB7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,12 +44,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -64,8 +70,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,12 +387,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC2729F9-4928-4C95-B69D-65ED41371774}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <f>SUM(A1:A10)</f>
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>